--- a/seoul_cctv_byyear.xlsx
+++ b/seoul_cctv_byyear.xlsx
@@ -1,37 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSC\Desktop\crime_sl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24705" windowHeight="9240"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>자치구</t>
+  </si>
+  <si>
+    <t>2016년 이전</t>
+  </si>
+  <si>
+    <t>2017년</t>
+  </si>
+  <si>
+    <t>2018년</t>
+  </si>
+  <si>
+    <t>2019년</t>
+  </si>
+  <si>
+    <t>2020년</t>
+  </si>
+  <si>
+    <t>2021년</t>
+  </si>
+  <si>
+    <t>2022년</t>
+  </si>
+  <si>
+    <t>2023년</t>
+  </si>
+  <si>
+    <t>2024년</t>
+  </si>
+  <si>
+    <t>2025년(6월30일)</t>
+  </si>
+  <si>
+    <t>종로구</t>
+  </si>
+  <si>
+    <t>용산구</t>
+  </si>
+  <si>
+    <t>성동구</t>
+  </si>
+  <si>
+    <t>광진구</t>
+  </si>
+  <si>
+    <t>동대문구</t>
+  </si>
+  <si>
+    <t>중랑구</t>
+  </si>
+  <si>
+    <t>성북구</t>
+  </si>
+  <si>
+    <t>강북구</t>
+  </si>
+  <si>
+    <t>도봉구</t>
+  </si>
+  <si>
+    <t>노원구</t>
+  </si>
+  <si>
+    <t>은평구</t>
+  </si>
+  <si>
+    <t>서대문구</t>
+  </si>
+  <si>
+    <t>마포구</t>
+  </si>
+  <si>
+    <t>양천구</t>
+  </si>
+  <si>
+    <t>강서구</t>
+  </si>
+  <si>
+    <t>구로구</t>
+  </si>
+  <si>
+    <t>금천구</t>
+  </si>
+  <si>
+    <t>영등포구</t>
+  </si>
+  <si>
+    <t>동작구</t>
+  </si>
+  <si>
+    <t>관악구</t>
+  </si>
+  <si>
+    <t>서초구</t>
+  </si>
+  <si>
+    <t>강남구</t>
+  </si>
+  <si>
+    <t>송파구</t>
+  </si>
+  <si>
+    <t>강동구</t>
+  </si>
+  <si>
+    <t>중구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +174,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,1002 +498,928 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>자치구</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2016년 이전</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2017년</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2018년</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2019년</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2020년</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2021년</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2022년</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2023년</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2024년</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2025년(6월30일)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>종로구</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>51</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>116</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>251</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>318</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>545</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>630</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>858</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>1839</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>2826</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>2939</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>중 구</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
         <v>406</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>773</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1157</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1320</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1665</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>2069</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>2206</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>2344</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>2926</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>3276</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>용산구</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>144</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>589</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>707</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1039</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1661</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>2091</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>2549</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>2956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>3610</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>3628</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>성동구</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
         <v>1549</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2415</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2799</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>3276</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3663</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>3957</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>4127</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>4443</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>4650</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>4682</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>광진구</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
         <v>260</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>912</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1376</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>2053</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>2247</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>2986</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>3262</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>3610</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>4625</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>4749</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>동대문구</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>374</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1044</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1243</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1458</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1687</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1913</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>2230</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>2983</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>3846</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>3846</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>중랑구</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
         <v>435</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>616</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>825</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1885</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>2874</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>3478</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>3814</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>4498</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>5392</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>5392</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>성북구</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
         <v>587</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>956</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1687</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>2330</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2532</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>2906</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>3246</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>3654</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>4718</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>5074</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>강북구</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
         <v>195</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>196</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>540</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>1464</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>2002</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>2395</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>3034</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>3407</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>4247</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>4322</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>도봉구</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>29</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>161</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>305</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>456</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1000</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>1530</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>2166</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>2751</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>2820</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>노원구</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
         <v>667</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>823</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1029</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>1342</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1724</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>1937</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>2098</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>2721</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>4073</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>4109</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>은평구</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
         <v>781</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1140</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>1729</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>2781</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>3232</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>3803</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>4305</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>4771</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>5645</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>5719</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>서대문구</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
         <v>809</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1355</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>1719</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>2120</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>2733</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>3158</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>3371</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>3793</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>4218</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>4337</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>마포구</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
         <v>1064</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1428</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1774</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>2157</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>2396</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>2560</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>2630</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>3366</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>3839</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>3843</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>양천구</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
         <v>487</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1044</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>1867</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>2189</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>2535</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>2890</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>3278</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>4271</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>4854</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>4854</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>강서구</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
         <v>310</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>708</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>965</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>1419</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>1780</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>2215</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>2819</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>3248</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>4304</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>4351</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>구로구</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
         <v>47</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>566</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>1098</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>1877</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>2629</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>3319</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>3656</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>4142</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>5464</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>5881</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>금천구</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C19" t="n">
+      <c r="B19">
+        <v>27</v>
+      </c>
+      <c r="C19">
         <v>219</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>743</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>1111</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>1627</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>1834</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>2138</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>2962</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>3712</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>3724</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>영등포구</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
         <v>636</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>980</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1747</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>1812</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>3112</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>3400</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>3838</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>4276</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>5031</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>5172</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>동작구</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
         <v>1091</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1352</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>1650</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>1962</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>2392</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>2423</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>2782</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>3209</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>3978</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>4156</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>관악구</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
         <v>716</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1371</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2032</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>2921</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>3322</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>3872</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>4010</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>4753</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>5804</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>7036</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>서초구</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
         <v>1293</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>2315</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>2737</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>3076</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>3495</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>4060</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>4938</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>5395</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>6036</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>6032</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>강남구</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
         <v>2719</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>3598</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>4341</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>5153</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>5830</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>6321</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>6906</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>7775</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>8363</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>8365</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>송파구</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
         <v>370</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>603</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>1119</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>2171</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>2434</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>2609</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>2982</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>3923</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>4670</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>4683</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>강동구</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
         <v>927</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1200</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>1577</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>1933</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>2547</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>2809</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>3190</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>3549</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>4237</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>4496</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>